--- a/upload/KE HOACH GIANG DAY DVPL.xlsx
+++ b/upload/KE HOACH GIANG DAY DVPL.xlsx
@@ -389,7 +389,7 @@
     <t>Khóa học 43 (2018-2021)</t>
   </si>
   <si>
-    <t>Ngành đào tạo: dịch vụ pháp lý 1    Mã ngành: 11111</t>
+    <t>Ngành đào tạo: dịch vụ pháp lý 5    Mã ngành: 11115</t>
   </si>
 </sst>
 </file>
@@ -657,6 +657,42 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -668,42 +704,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1121,62 +1121,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="E1" s="40" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="E2" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="E2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
     </row>
     <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
@@ -1193,22 +1193,22 @@
       <c r="J6" s="41"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
     </row>
     <row r="10" spans="1:12" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -1441,11 +1441,11 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="21">
         <v>2</v>
       </c>
@@ -1466,18 +1466,18 @@
     </row>
     <row r="19" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
     </row>
     <row r="22" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
@@ -1767,18 +1767,18 @@
     </row>
     <row r="32" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
     </row>
     <row r="35" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
@@ -2081,11 +2081,11 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="42" t="s">
+      <c r="A45" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="43"/>
-      <c r="C45" s="44"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="33"/>
       <c r="D45" s="22">
         <v>18</v>
       </c>
@@ -2153,18 +2153,18 @@
       <c r="J49" s="26"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
     </row>
     <row r="53" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
@@ -2569,18 +2569,18 @@
       <c r="J68" s="26"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="30" t="s">
+      <c r="A70" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="30"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
     </row>
     <row r="72" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
@@ -2875,30 +2875,30 @@
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
-      <c r="G83" s="45" t="s">
+      <c r="G83" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="H83" s="45"/>
-      <c r="I83" s="45"/>
-      <c r="J83" s="45"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="37"/>
     </row>
     <row r="84" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="40" t="s">
+      <c r="A84" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B84" s="40"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="40" t="s">
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E84" s="40"/>
-      <c r="F84" s="40"/>
-      <c r="G84" s="40" t="s">
+      <c r="E84" s="30"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H84" s="40"/>
-      <c r="I84" s="40"/>
-      <c r="J84" s="40"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="30"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
@@ -2923,11 +2923,11 @@
       <c r="J87" s="9"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="40" t="s">
+      <c r="A88" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B88" s="40"/>
-      <c r="C88" s="40"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
@@ -2949,14 +2949,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="G83:J83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="G84:J84"/>
-    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A31:C31"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A1:C1"/>
@@ -2966,12 +2964,14 @@
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="G83:J83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="G84:J84"/>
+    <mergeCell ref="A80:C80"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
